--- a/BackTest/2020-01-13 BackTest ETH.xlsx
+++ b/BackTest/2020-01-13 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,7 +2332,7 @@
         <v>3026.401588999773</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3166.770988999773</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3461.563988999773</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3021.677888999773</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2988.431988999773</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2974.154388999772</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2934.575188999772</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2934.575188999772</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2926.904788999772</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2931.577488999772</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2928.972688999772</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2956.536359388122</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2950.972359388122</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>2770.379759388122</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2640.196259388122</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2756.399159388122</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2752.399159388122</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2752.399159388122</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2517.899759388122</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2521.171259388122</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2597.714359388121</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2605.479459388122</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2605.347159388121</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2613.534559388121</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2655.410938282374</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>2442.051638282374</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>2485.618938282375</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2510.881938282374</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2530.873938282375</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>2902.224638282375</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2885.493638282374</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2884.693638282374</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2842.162738282374</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2795.133438282374</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2795.133438282374</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2795.133438282374</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2794.743838282374</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2786.572238282374</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>2796.350838282374</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2796.350838282374</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2799.183138282374</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2798.539438282374</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2798.755638282374</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2968.774938282374</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>3209.497838282374</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>3215.342338282374</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>3215.342338282374</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3192.686038282375</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>3192.686038282375</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>3188.873638282375</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>3188.873638282375</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3186.153338282375</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3186.153338282375</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3202.411538282375</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3203.441138282375</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>3197.853738282375</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>3199.452638282375</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>3203.605038282376</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3213.169638282376</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3227.575638282376</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>3227.575638282376</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3227.575638282376</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>3214.604138282376</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>3201.406338282376</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>3167.132838282376</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>3167.132838282376</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3167.132838282376</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>3160.502138282376</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>3276.688238282376</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3251.765138282376</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>3241.765238282376</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3209.086338282376</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3145.58845925502</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3165.66475925502</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -12661,11 +12661,17 @@
         <v>1558.136508724414</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>160600</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12700,17 @@
         <v>1651.144808724414</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>160400</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12739,17 @@
         <v>1684.852508724414</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>160700</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12778,17 @@
         <v>1684.691408724414</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>161000</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12817,17 @@
         <v>1684.691408724414</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>160700</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12856,17 @@
         <v>1616.032308724414</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>160700</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12895,17 @@
         <v>1616.032308724414</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>160500</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,15 +12934,17 @@
         <v>1639.307808724414</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>160500</v>
       </c>
-      <c r="J379" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,17 +12973,15 @@
         <v>1639.307808724414</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>160800</v>
       </c>
-      <c r="J380" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -12970,17 +13012,15 @@
         <v>1673.617008724414</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>160800</v>
       </c>
-      <c r="J381" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -13011,17 +13051,15 @@
         <v>1689.812108724414</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>161000</v>
       </c>
-      <c r="J382" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L382" t="n">
@@ -13052,14 +13090,12 @@
         <v>1704.360908724414</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>161200</v>
       </c>
-      <c r="J383" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,14 +13129,12 @@
         <v>1704.876108724414</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>161400</v>
       </c>
-      <c r="J384" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13134,12 +13168,12 @@
         <v>1711.229108724414</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>160500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>161500</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13176,9 +13210,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13215,9 +13247,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13254,9 +13284,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,9 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,9 +13358,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,9 +13395,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,9 +13432,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,9 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,9 +13506,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,9 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,9 +13580,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,9 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,9 +13654,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,9 +13691,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,9 +13728,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,9 +13765,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,9 +13802,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,9 +13839,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +13876,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,9 +13913,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,9 +13950,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,9 +13987,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,9 +14024,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,9 +14061,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,9 +14098,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,9 +14135,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,9 +14172,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +14209,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +14246,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,9 +14283,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,9 +14320,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,9 +14357,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14424,9 +14394,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,9 +14431,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,9 +14468,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,9 +14505,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,9 +14542,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,9 +14579,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,9 +14616,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,9 +14653,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +14690,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +14727,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,9 +14764,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,9 +14801,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,9 +14838,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,9 +14875,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,9 +14912,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,9 +14949,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +14986,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,9 +15023,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,9 +15060,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,9 +15134,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,9 +15171,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,9 +15208,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,9 +15245,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,9 +15282,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,9 +15319,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15438,9 +15356,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +15393,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15516,9 +15430,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15555,9 +15467,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,9 +15504,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,9 +15541,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15672,9 +15578,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,9 +15615,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,9 +15652,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15789,9 +15689,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15828,9 +15726,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15867,9 +15763,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,9 +15800,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15945,9 +15837,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15984,9 +15874,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16023,9 +15911,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,9 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16101,9 +15985,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16140,9 +16022,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,9 +16059,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16218,9 +16096,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,9 +16133,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16296,9 +16170,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16335,9 +16207,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,9 +16244,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16413,9 +16281,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16452,9 +16318,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,9 +16355,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16530,9 +16392,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16569,9 +16429,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16608,9 +16466,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16647,9 +16503,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16686,9 +16540,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16725,9 +16577,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,9 +16614,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16803,9 +16651,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16842,9 +16688,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16881,9 +16725,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,9 +16762,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,9 +16799,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16998,9 +16836,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17037,9 +16873,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17076,9 +16910,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17115,9 +16947,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,9 +16984,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,9 +17021,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,9 +17058,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,9 +17095,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17310,9 +17132,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,9 +17169,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17388,9 +17206,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +17243,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17466,9 +17280,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,9 +17317,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,9 +17354,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,9 +17391,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +17428,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +17465,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +17502,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +17539,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +17576,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +17613,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,9 +17650,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,9 +17687,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17934,9 +17724,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,9 +17761,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18012,9 +17798,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18051,9 +17835,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18090,9 +17872,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18129,9 +17909,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,9 +17946,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18207,9 +17983,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18246,9 +18020,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18285,9 +18057,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18324,9 +18094,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,9 +18131,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18402,9 +18168,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18441,9 +18205,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18480,9 +18242,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18519,9 +18279,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18558,9 +18316,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18597,9 +18353,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18636,9 +18390,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,9 +18427,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,9 +18464,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18753,9 +18501,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,9 +18538,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18831,9 +18575,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18870,9 +18612,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18909,9 +18649,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,9 +18686,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18987,9 +18723,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +18760,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19065,9 +18797,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,9 +18834,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19143,9 +18871,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19182,9 +18908,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +18945,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19260,9 +18982,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19299,9 +19019,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,9 +19056,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +19093,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,9 +19130,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19455,9 +19167,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19494,9 +19204,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19533,9 +19241,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19572,9 +19278,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19611,9 +19315,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19650,9 +19352,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19689,9 +19389,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19728,9 +19426,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19767,9 +19463,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19806,9 +19500,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19845,9 +19537,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19884,9 +19574,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19923,9 +19611,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19962,9 +19648,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20001,9 +19685,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20040,9 +19722,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20079,9 +19759,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,9 +19796,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20157,9 +19833,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20196,9 +19870,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20235,9 +19907,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20274,9 +19944,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20313,9 +19981,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20352,9 +20018,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20391,9 +20055,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20430,9 +20092,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20469,9 +20129,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20508,9 +20166,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20547,9 +20203,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20586,9 +20240,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20625,9 +20277,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20664,9 +20314,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20703,9 +20351,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20742,9 +20388,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20781,9 +20425,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,9 +20462,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20859,9 +20499,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20898,9 +20536,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20937,9 +20573,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20610,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21015,9 +20647,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,9 +20684,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21093,9 +20721,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21132,9 +20758,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21171,9 +20795,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21210,9 +20832,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21249,9 +20869,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21288,9 +20906,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21327,9 +20943,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21366,9 +20980,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21405,9 +21017,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21444,9 +21054,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21483,9 +21091,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21522,9 +21128,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21561,9 +21165,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21600,9 +21202,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21639,9 +21239,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21678,9 +21276,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21717,9 +21313,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21756,9 +21350,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21795,9 +21387,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21834,9 +21424,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21873,9 +21461,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21912,9 +21498,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21951,9 +21535,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21990,9 +21572,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22029,9 +21609,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22068,9 +21646,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22107,9 +21683,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22146,9 +21720,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22185,9 +21757,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22224,9 +21794,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22263,9 +21831,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22302,9 +21868,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22341,9 +21905,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22380,9 +21942,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22419,9 +21979,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22458,9 +22016,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22497,9 +22053,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22536,9 +22090,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22575,9 +22127,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22614,9 +22164,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22653,9 +22201,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22692,9 +22238,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22731,9 +22275,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22770,9 +22312,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22809,9 +22349,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22845,19 +22383,17 @@
         <v>2890.436962218261</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>160500</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L634" t="n">
-        <v>1.016806853582555</v>
+        <v>1</v>
       </c>
       <c r="M634" t="inlineStr"/>
     </row>
@@ -22884,11 +22420,15 @@
         <v>3037.127562218261</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22917,11 +22457,15 @@
         <v>3033.512462218261</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22950,11 +22494,15 @@
         <v>3012.418762218261</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22983,11 +22531,15 @@
         <v>3056.278590111075</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23016,11 +22568,15 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23049,11 +22605,15 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23082,11 +22642,15 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23115,11 +22679,15 @@
         <v>3042.072090111074</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23148,11 +22716,15 @@
         <v>3041.942490111074</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23181,11 +22753,15 @@
         <v>3047.552618237981</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23214,11 +22790,15 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23247,11 +22827,15 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23280,11 +22864,15 @@
         <v>3040.771918237981</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23317,7 +22905,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23346,11 +22938,15 @@
         <v>3023.500718237981</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23379,11 +22975,15 @@
         <v>3015.009818237981</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23412,11 +23012,15 @@
         <v>3013.763518237981</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23449,7 +23053,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23482,7 +23090,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23515,7 +23127,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23548,7 +23164,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23581,7 +23201,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23614,7 +23238,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23647,7 +23275,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23680,7 +23312,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23713,7 +23349,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23746,7 +23386,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23779,7 +23423,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23812,7 +23460,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23845,7 +23497,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23878,7 +23534,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23911,7 +23571,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23944,7 +23608,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23977,7 +23645,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24010,7 +23682,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24043,7 +23719,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24076,7 +23756,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24109,7 +23793,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24142,7 +23830,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24175,7 +23867,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24208,7 +23904,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24241,7 +23941,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24274,7 +23978,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24307,7 +24015,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24340,7 +24052,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24373,7 +24089,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24406,7 +24126,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24439,7 +24163,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24472,7 +24200,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24505,7 +24237,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +24274,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24571,7 +24311,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24604,7 +24348,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24637,7 +24385,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24670,7 +24422,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24703,7 +24459,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24736,7 +24496,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24769,7 +24533,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24802,7 +24570,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24835,7 +24607,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24868,7 +24644,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24901,7 +24681,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24934,7 +24718,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24967,7 +24755,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25000,7 +24792,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25033,7 +24829,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25066,7 +24866,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25099,7 +24903,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25132,7 +24940,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25165,7 +24977,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25198,7 +25014,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25231,7 +25051,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25264,7 +25088,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25297,7 +25125,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25330,7 +25162,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25363,7 +25199,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25396,7 +25236,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25429,7 +25273,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25462,7 +25310,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25495,7 +25347,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25528,7 +25384,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25561,7 +25421,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25594,7 +25458,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25627,7 +25495,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25660,7 +25532,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25693,7 +25569,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25726,7 +25606,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25759,7 +25643,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25792,7 +25680,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25825,7 +25717,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25858,7 +25754,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25891,7 +25791,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25924,7 +25828,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25957,7 +25865,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25990,7 +25902,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26019,11 +25935,15 @@
         <v>2776.035336388422</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26052,11 +25972,15 @@
         <v>2776.035336388422</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26085,11 +26009,15 @@
         <v>2762.915036388422</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26118,11 +26046,15 @@
         <v>2756.600336388422</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26151,11 +26083,15 @@
         <v>2597.172736388422</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26184,11 +26120,15 @@
         <v>2597.172736388422</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26217,11 +26157,15 @@
         <v>2597.731436388422</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26254,7 +26198,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26287,7 +26235,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26316,11 +26268,15 @@
         <v>2676.826927591843</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26349,11 +26305,15 @@
         <v>2756.038027591843</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26382,11 +26342,15 @@
         <v>2688.596627591843</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26415,11 +26379,15 @@
         <v>2688.596627591843</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26448,11 +26416,15 @@
         <v>2688.596627591843</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26481,11 +26453,15 @@
         <v>2688.596627591843</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26514,11 +26490,15 @@
         <v>2721.604627591842</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26551,7 +26531,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26584,7 +26568,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26617,7 +26605,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26650,7 +26642,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26683,7 +26679,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26716,7 +26716,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26745,11 +26749,15 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26778,11 +26786,15 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26811,11 +26823,15 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26848,7 +26864,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26881,7 +26901,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26914,7 +26938,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26947,7 +26975,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26980,7 +27012,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27013,7 +27049,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27046,7 +27086,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27075,11 +27119,15 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27112,7 +27160,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27145,7 +27197,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27174,11 +27230,15 @@
         <v>2582.083476341006</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27211,7 +27271,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27244,7 +27308,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27277,7 +27345,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27310,7 +27382,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27343,7 +27419,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27376,7 +27456,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27409,7 +27493,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27442,7 +27530,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27475,7 +27567,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27508,7 +27604,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27541,7 +27641,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27574,7 +27678,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27607,7 +27715,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27640,7 +27752,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27673,7 +27789,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27706,7 +27826,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27739,7 +27863,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27772,7 +27900,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27805,7 +27937,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27838,7 +27974,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27871,7 +28011,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27904,7 +28048,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27937,7 +28085,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27970,7 +28122,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28003,7 +28159,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28036,7 +28196,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28069,7 +28233,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28102,7 +28270,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28135,7 +28307,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28168,7 +28344,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28201,7 +28381,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28234,7 +28418,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28267,7 +28455,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28300,7 +28492,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28333,7 +28529,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28366,7 +28566,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28399,7 +28603,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28432,7 +28640,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28465,7 +28677,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28498,7 +28714,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28531,7 +28751,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28564,7 +28788,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28597,7 +28825,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28630,7 +28862,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28663,7 +28899,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28696,7 +28936,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28729,7 +28973,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28762,7 +29010,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28795,7 +29047,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28828,7 +29084,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28861,7 +29121,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28894,7 +29158,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28927,7 +29195,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28960,7 +29232,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28993,7 +29269,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29026,7 +29306,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29059,7 +29343,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29092,7 +29380,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29125,7 +29417,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29158,7 +29454,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29191,7 +29491,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29224,7 +29528,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29257,7 +29565,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29290,7 +29602,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29323,7 +29639,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29356,7 +29676,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29389,7 +29713,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29422,7 +29750,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29455,7 +29787,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29488,7 +29824,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29521,7 +29861,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29554,7 +29898,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29587,7 +29935,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29620,7 +29972,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29653,7 +30009,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29686,7 +30046,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29719,7 +30083,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29752,7 +30120,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29785,7 +30157,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29818,7 +30194,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29851,7 +30231,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29884,7 +30268,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29917,7 +30305,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29950,7 +30342,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29983,7 +30379,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30016,7 +30416,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30049,7 +30453,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30082,7 +30490,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30115,7 +30527,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30148,7 +30564,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30181,7 +30601,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30214,7 +30638,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30247,7 +30675,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30280,7 +30712,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30313,7 +30749,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30346,7 +30786,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30379,7 +30823,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30412,7 +30860,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30445,7 +30897,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30478,7 +30934,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30511,7 +30971,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30544,7 +31008,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30577,7 +31045,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30610,7 +31082,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30643,7 +31119,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30676,7 +31156,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30709,7 +31193,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30742,7 +31230,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30775,7 +31267,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30808,7 +31304,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30841,7 +31341,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30874,7 +31378,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30907,7 +31415,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30940,7 +31452,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30973,7 +31489,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31006,7 +31526,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31039,7 +31563,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31072,7 +31600,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31105,7 +31637,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31138,7 +31674,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31171,7 +31711,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31204,7 +31748,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31237,7 +31785,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31270,7 +31822,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31303,7 +31859,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31336,7 +31896,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31369,7 +31933,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31402,7 +31970,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31435,7 +32007,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31468,7 +32044,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31501,7 +32081,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31534,7 +32118,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31567,7 +32155,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31600,7 +32192,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31633,7 +32229,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31666,7 +32266,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31699,7 +32303,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31732,7 +32340,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31765,7 +32377,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31798,7 +32414,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31831,7 +32451,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31864,7 +32488,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31897,7 +32525,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31930,7 +32562,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31963,7 +32599,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31996,7 +32636,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32029,7 +32673,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32062,7 +32710,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32095,7 +32747,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32128,7 +32784,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32161,7 +32821,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32194,7 +32858,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32227,7 +32895,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32260,7 +32932,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32293,7 +32969,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32326,7 +33006,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32359,7 +33043,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32392,7 +33080,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32425,7 +33117,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32458,7 +33154,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32491,7 +33191,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32524,7 +33228,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32557,7 +33265,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32590,7 +33302,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32623,7 +33339,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32656,7 +33376,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32689,7 +33413,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32722,7 +33450,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32755,7 +33487,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32788,7 +33524,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32821,7 +33561,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32854,7 +33598,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32887,7 +33635,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32920,7 +33672,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32953,7 +33709,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32986,7 +33746,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33019,7 +33783,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33052,7 +33820,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33085,7 +33857,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33118,7 +33894,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33151,7 +33931,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33184,7 +33968,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33217,7 +34005,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33250,7 +34042,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33283,7 +34079,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33316,7 +34116,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33349,7 +34153,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33382,7 +34190,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33415,7 +34227,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33448,7 +34264,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33481,7 +34301,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33514,7 +34338,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33547,7 +34375,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33580,7 +34412,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33613,7 +34449,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33646,7 +34486,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33679,7 +34523,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33712,7 +34560,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33745,7 +34597,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33778,7 +34634,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33811,7 +34671,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33844,7 +34708,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33877,7 +34745,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33910,7 +34782,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33943,7 +34819,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33976,7 +34856,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34009,7 +34893,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34042,7 +34930,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34075,7 +34967,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34108,7 +35004,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34141,7 +35041,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34174,7 +35078,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34207,7 +35115,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34240,7 +35152,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34273,7 +35189,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34306,7 +35226,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34339,7 +35263,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34372,7 +35300,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34405,7 +35337,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34438,7 +35374,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34471,7 +35411,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34504,7 +35448,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34537,7 +35485,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34570,7 +35522,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34603,7 +35559,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34636,7 +35596,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34669,7 +35633,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34702,7 +35670,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34735,7 +35707,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34768,7 +35744,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34801,7 +35781,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34834,7 +35818,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34867,7 +35855,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34900,7 +35892,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34933,7 +35929,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34966,7 +35966,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34999,7 +36003,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35032,7 +36040,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35065,7 +36077,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35098,7 +36114,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35131,7 +36151,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35164,7 +36188,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35197,7 +36225,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35230,7 +36262,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35263,7 +36299,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35296,7 +36336,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35329,7 +36373,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35362,7 +36410,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35395,7 +36447,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35428,7 +36484,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35461,7 +36521,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35494,7 +36558,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35527,7 +36595,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35560,7 +36632,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35593,7 +36669,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35626,7 +36706,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35659,7 +36743,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35692,7 +36780,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35725,7 +36817,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35758,7 +36854,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35791,7 +36891,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35824,7 +36928,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35857,7 +36965,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35890,7 +37002,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35923,7 +37039,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35956,7 +37076,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35989,7 +37113,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36022,7 +37150,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36055,7 +37187,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36088,7 +37224,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36121,7 +37261,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36154,7 +37298,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36187,7 +37335,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36220,7 +37372,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36253,7 +37409,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36286,7 +37446,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36319,13 +37483,17 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
       <c r="M1042" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ETH.xlsx
+++ b/BackTest/2020-01-13 BackTest ETH.xlsx
@@ -644,9 +644,11 @@
         <v>306.24978171822</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>162300</v>
+      </c>
       <c r="J7" t="n">
         <v>162100</v>
       </c>
@@ -683,9 +685,11 @@
         <v>546.47978171822</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>162400</v>
+      </c>
       <c r="J8" t="n">
         <v>162100</v>
       </c>
@@ -722,9 +726,11 @@
         <v>534.2621817182201</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>162500</v>
+      </c>
       <c r="J9" t="n">
         <v>162100</v>
       </c>
@@ -761,9 +767,11 @@
         <v>534.2711817182201</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>162200</v>
+      </c>
       <c r="J10" t="n">
         <v>162100</v>
       </c>
@@ -800,9 +808,11 @@
         <v>523.07938171822</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>162400</v>
+      </c>
       <c r="J11" t="n">
         <v>162100</v>
       </c>
@@ -839,9 +849,11 @@
         <v>538.5936817182201</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>162000</v>
+      </c>
       <c r="J12" t="n">
         <v>162100</v>
       </c>
@@ -919,9 +931,11 @@
         <v>722.6773817182201</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>162100</v>
+      </c>
       <c r="J14" t="n">
         <v>162100</v>
       </c>
@@ -997,7 +1011,7 @@
         <v>693.87548171822</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1005,11 +1019,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.9974676125848242</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -1036,11 +1050,17 @@
         <v>708.3358817182201</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,11 +1089,17 @@
         <v>716.3070171387235</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1128,17 @@
         <v>715.6695171387234</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1135,11 +1167,17 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1168,11 +1206,17 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1245,17 @@
         <v>698.2058171387234</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1284,17 @@
         <v>700.2201171387235</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1323,17 @@
         <v>693.4192171387235</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,11 +1362,17 @@
         <v>714.2901171387235</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1333,11 +1401,17 @@
         <v>745.5841171387235</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,11 +1440,17 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1399,11 +1479,17 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1432,11 +1518,17 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1557,17 @@
         <v>748.2503171387235</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1498,11 +1596,17 @@
         <v>940.5179817182201</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1635,17 @@
         <v>936.41628171822</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1564,11 +1674,17 @@
         <v>949.37328171822</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1597,11 +1713,17 @@
         <v>1258.64068171822</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1630,11 +1752,17 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1663,11 +1791,17 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1696,11 +1830,17 @@
         <v>2182.96488171822</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1869,17 @@
         <v>2131.121588999773</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1762,11 +1908,17 @@
         <v>2652.088088999773</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1795,11 +1947,17 @@
         <v>3073.974088999773</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1831,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1864,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1897,8 +2067,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1930,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1963,8 +2145,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1996,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2029,8 +2223,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2062,8 +2262,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2095,8 +2301,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2128,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2161,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2194,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2227,8 +2457,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2260,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2293,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2326,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2359,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2392,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2425,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2458,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2491,8 +2769,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2524,8 +2808,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2847,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2590,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2620,13 +2922,19 @@
         <v>3166.770988999773</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>162100</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>1.0153578038248</v>
       </c>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2653,7 +2961,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2686,7 +2994,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2719,7 +3027,7 @@
         <v>3461.563988999773</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2752,7 +3060,7 @@
         <v>3021.677888999773</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2785,7 +3093,7 @@
         <v>2988.431988999773</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2818,7 +3126,7 @@
         <v>2988.412988999773</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2851,7 +3159,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2884,7 +3192,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2917,7 +3225,7 @@
         <v>2989.918188999773</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2950,7 +3258,7 @@
         <v>2992.785888999772</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2983,7 +3291,7 @@
         <v>2995.624188999772</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3016,7 +3324,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3049,7 +3357,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -21199,7 +21507,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21232,7 +21540,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21265,7 +21573,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21298,7 +21606,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21331,7 +21639,7 @@
         <v>2795.881462218261</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21364,7 +21672,7 @@
         <v>2726.530762218261</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21397,7 +21705,7 @@
         <v>2890.436962218261</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21430,7 +21738,7 @@
         <v>3037.127562218261</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21463,7 +21771,7 @@
         <v>3033.512462218261</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21496,7 +21804,7 @@
         <v>3012.418762218261</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21529,7 +21837,7 @@
         <v>3056.278590111075</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21562,7 +21870,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21595,7 +21903,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21628,7 +21936,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21661,7 +21969,7 @@
         <v>3042.072090111074</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21694,7 +22002,7 @@
         <v>3041.942490111074</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21727,7 +22035,7 @@
         <v>3047.552618237981</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21760,7 +22068,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21793,7 +22101,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21826,7 +22134,7 @@
         <v>3040.771918237981</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21859,7 +22167,7 @@
         <v>3021.639918237981</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21892,7 +22200,7 @@
         <v>3023.500718237981</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21925,7 +22233,7 @@
         <v>3015.009818237981</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21958,7 +22266,7 @@
         <v>3013.763518237981</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21991,7 +22299,7 @@
         <v>3013.263518237981</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22024,7 +22332,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22057,7 +22365,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22090,7 +22398,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22123,7 +22431,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22156,7 +22464,7 @@
         <v>3019.799718237981</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22189,7 +22497,7 @@
         <v>3021.863318237981</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22222,7 +22530,7 @@
         <v>3018.312218237981</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22255,7 +22563,7 @@
         <v>3026.308018237981</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22288,7 +22596,7 @@
         <v>3047.265718237981</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22321,7 +22629,7 @@
         <v>3046.003118237981</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22354,7 +22662,7 @@
         <v>3050.582718237981</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25159,7 +25467,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25192,7 +25500,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25225,7 +25533,7 @@
         <v>2711.628727591843</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25258,7 +25566,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25291,7 +25599,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25324,7 +25632,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25357,7 +25665,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25390,7 +25698,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25555,7 +25863,7 @@
         <v>2892.084978293416</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25588,7 +25896,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25621,7 +25929,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25654,7 +25962,7 @@
         <v>2882.086176341006</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -34036,7 +34344,7 @@
         <v>2462.726858954233</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34069,7 +34377,7 @@
         <v>2449.337158954233</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34102,7 +34410,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34135,7 +34443,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34168,7 +34476,7 @@
         <v>2480.262958954233</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34201,7 +34509,7 @@
         <v>2494.466358954233</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34234,7 +34542,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34267,7 +34575,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34300,7 +34608,7 @@
         <v>2475.17505681356</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34333,7 +34641,7 @@
         <v>2460.17505681356</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34366,7 +34674,7 @@
         <v>2465.76745681356</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34399,7 +34707,7 @@
         <v>2452.95015681356</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34432,7 +34740,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34465,7 +34773,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34498,7 +34806,7 @@
         <v>2445.98325681356</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34531,7 +34839,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34564,7 +34872,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34597,7 +34905,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34630,7 +34938,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34663,7 +34971,7 @@
         <v>2536.58577530713</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34696,7 +35004,7 @@
         <v>2533.59107530713</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34729,7 +35037,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34762,7 +35070,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34795,7 +35103,7 @@
         <v>2505.18187530713</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34828,7 +35136,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34861,7 +35169,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
